--- a/Data/03_Arbeid og næringsliv/2020-tall/Arbeidsstyrken SSB 13563.xlsx
+++ b/Data/03_Arbeid og næringsliv/2020-tall/Arbeidsstyrken SSB 13563.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtfk-my.sharepoint.com/personal/erling_kielland_servoll_vtfk_no/Documents/GitHub/VT_Pluss/01_Nedlastede data/03_Arbeid og næringsliv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtfk-my.sharepoint.com/personal/erling_kielland_servoll_vtfk_no/Documents/GitHub/Vestfold/Data/03_Arbeid og næringsliv/2020-tall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DCFBB5B-637E-4A2C-AE76-C8A1F180A09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{9DCFBB5B-637E-4A2C-AE76-C8A1F180A09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2D67663-01B6-4606-B442-A2E21481B3B6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="15375" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kilde 13563" sheetId="2" r:id="rId1"/>
     <sheet name="figurer" sheetId="3" r:id="rId2"/>
     <sheet name="viz" sheetId="4" r:id="rId3"/>
+    <sheet name="Ark1" sheetId="5" r:id="rId4"/>
+    <sheet name="Ark2" sheetId="6" r:id="rId5"/>
+    <sheet name="Ark3" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2107,6 +2110,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2947,10 +2953,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0E4BB5-EBE1-4190-A707-53D78295D23E}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:L20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3703,10 +3712,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A94FD88-AE06-44F6-9A57-187A9B02AD01}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4016,4 +4028,40 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECBE63CF-1012-418C-A0E4-5DEB93DADD36}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C9BC96-96C3-4039-B4A6-BD25A72E5197}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A60938-8783-4453-9D9F-503AB1481EAC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>